--- a/data/income_statement/2digits/size/16_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/16_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>16-Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>16-Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>865352.60674</v>
+        <v>908123.7698</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>956608.58525</v>
+        <v>956760.46326</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1288051.78963</v>
+        <v>1336027.03709</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1526069.22741</v>
+        <v>1528402.06527</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1732332.01695</v>
+        <v>1691526.6603</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2072514.91545</v>
+        <v>2218028.19759</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2304989.90446</v>
+        <v>2380418.67834</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2685799.69678</v>
+        <v>2755733.08178</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3384709.55695</v>
+        <v>3329191.72973</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4306730.39925</v>
+        <v>4491471.91838</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4404503.775690001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4497626.30322</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5927749.997</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>733892.7925499999</v>
+        <v>769353.7359699999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>880994.9641399999</v>
+        <v>875797.76154</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1188770.65293</v>
+        <v>1227312.31286</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1400990.16947</v>
+        <v>1399420.27121</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1581309.28647</v>
+        <v>1536902.35729</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1893459.18223</v>
+        <v>2035918.41412</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2073023.27698</v>
+        <v>2124971.1718</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2459240.32818</v>
+        <v>2513339.64159</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3184092.92361</v>
+        <v>3107998.50782</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3783206.23229</v>
+        <v>3882477.74139</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3759719.31413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3810536.63257</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5055680.823</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>117850.42233</v>
+        <v>123692.57508</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>63884.27022999999</v>
+        <v>63604.55236</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>82922.32584999999</v>
+        <v>86276.25351000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>106515.32557</v>
+        <v>110571.05763</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>130464.78174</v>
+        <v>134965.02814</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>158598.88071</v>
+        <v>160209.13194</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>194729.47781</v>
+        <v>212302.61691</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>194624.95167</v>
+        <v>207787.93637</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>163038.14479</v>
+        <v>179662.57278</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>468549.86321</v>
+        <v>552131.83488</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>555930.8585399999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>606000.9555800001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>801306.83</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>13609.39186</v>
+        <v>15077.45875</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>11729.35088</v>
+        <v>17358.14936</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>16358.81085</v>
+        <v>22438.47072</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>18563.73237</v>
+        <v>18410.73643</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>20557.94874</v>
+        <v>19659.27487</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>20456.85251</v>
+        <v>21900.65153</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>37237.14967</v>
+        <v>43144.88963</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>31934.41693</v>
+        <v>34605.50382</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>37578.48854999999</v>
+        <v>41530.64913</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>54974.30375</v>
+        <v>56862.34211</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>88853.60302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>81088.71506999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>70762.344</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>17983.10581</v>
+        <v>18210.91531</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8210.00734</v>
+        <v>7452.261759999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>11526.8978</v>
+        <v>13268.12905</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>11138.2125</v>
+        <v>10679.99977</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>14328.90688</v>
+        <v>13072.48993</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>18844.06333</v>
+        <v>20335.72902</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>19881.20637</v>
+        <v>20361.74559</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>24159.06403</v>
+        <v>24885.98334</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>24328.17952</v>
+        <v>24996.2458</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>46088.69632</v>
+        <v>54337.25474</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>41923.77513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>43491.57374</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>80267.70699999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>11482.47568</v>
+        <v>11682.19843</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6911.40405</v>
+        <v>6059.497199999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>9255.108689999999</v>
+        <v>10626.80512</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9096.720350000001</v>
+        <v>8595.64941</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10613.41855</v>
+        <v>9380.24044</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>11905.46303</v>
+        <v>12991.17895</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>14508.9117</v>
+        <v>13797.50874</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>20477.77926</v>
+        <v>20576.51819</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>18955.49993</v>
+        <v>19661.02122</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>34390.60287</v>
+        <v>37836.84119000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>30392.78747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>30859.69219</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>69078.36</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>6127.89046</v>
+        <v>6106.85348</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1045.99415</v>
+        <v>852.84564</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1808.15664</v>
+        <v>1998.32508</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1397.78192</v>
+        <v>1435.40838</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2184.11733</v>
+        <v>2114.31018</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>5715.58881</v>
+        <v>6011.86576</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3975.44624</v>
+        <v>5066.41345</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2305.32331</v>
+        <v>2530.24109</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3306.13745</v>
+        <v>3244.92369</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6386.19133</v>
+        <v>10365.58092</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>9168.14876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9537.052610000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>7703.911</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>372.73967</v>
+        <v>421.8634</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>252.60914</v>
+        <v>539.91892</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>463.63247</v>
+        <v>642.9988499999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>643.71023</v>
+        <v>648.9419799999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1531.371</v>
+        <v>1577.93931</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1223.01149</v>
+        <v>1332.68431</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1396.84843</v>
+        <v>1497.8234</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1375.96146</v>
+        <v>1779.22406</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2066.54214</v>
+        <v>2090.30089</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>5311.90212</v>
+        <v>6134.83263</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2362.8389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3094.82894</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3485.436</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>847369.5009300001</v>
+        <v>889912.8544900001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>948398.57791</v>
+        <v>949308.2015</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1276524.89183</v>
+        <v>1322758.90804</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1514931.01491</v>
+        <v>1517722.0655</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1718003.11007</v>
+        <v>1678454.17037</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2053670.85212</v>
+        <v>2197692.46857</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2285108.69809</v>
+        <v>2360056.93275</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2661640.63275</v>
+        <v>2730847.09844</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3360381.37743</v>
+        <v>3304195.48393</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4260641.702930001</v>
+        <v>4437134.66364</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4362580.00056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4454134.729479999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5847482.29</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>724077.1476800001</v>
+        <v>762336.3429800001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>823107.93413</v>
+        <v>828431.9275700001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1107008.39292</v>
+        <v>1146319.85611</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1295864.67979</v>
+        <v>1287605.63996</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1460260.57867</v>
+        <v>1423844.96116</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1733446.92576</v>
+        <v>1849287.86744</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1951936.11589</v>
+        <v>1991516.29986</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2250421.63622</v>
+        <v>2298383.74209</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2862978.97255</v>
+        <v>2807576.85418</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3547778.17521</v>
+        <v>3652541.88751</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3673886.984689999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3747435.77155</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4908397.557</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>565550.63448</v>
+        <v>596205.34792</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>639894.31755</v>
+        <v>649036.1565700001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>825893.17208</v>
+        <v>846613.6320999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>999569.4783600001</v>
+        <v>991344.75875</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1157898.21584</v>
+        <v>1127268.01624</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1389289.67938</v>
+        <v>1472712.96856</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1548917.23146</v>
+        <v>1560466.75061</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1764373.3628</v>
+        <v>1786943.34515</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2179049.77148</v>
+        <v>2109589.37549</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2722151.25482</v>
+        <v>2841161.34122</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2873307.686100001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2986579.45325</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3778916.578</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>143341.50291</v>
+        <v>151784.90426</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>150640.23168</v>
+        <v>146939.50517</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>214451.89761</v>
+        <v>232359.14681</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>259800.03532</v>
+        <v>267733.21098</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>256960.56355</v>
+        <v>252237.83294</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>295969.29939</v>
+        <v>332491.26842</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>342439.42998</v>
+        <v>371068.268</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>434232.89149</v>
+        <v>464403.54381</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>612991.03611</v>
+        <v>619100.5760499999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>628851.28539</v>
+        <v>614778.1823400001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>674153.99198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>630755.29655</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>957206.04</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>10934.89732</v>
+        <v>9732.924779999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>28444.04278</v>
+        <v>28750.78136</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>60436.04180000001</v>
+        <v>62570.12713</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>27064.60857</v>
+        <v>19543.79595</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>37689.02723000001</v>
+        <v>37361.41022999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>39023.41407</v>
+        <v>35320.62024</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>45405.02903</v>
+        <v>45419.84185</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>39461.74475</v>
+        <v>34878.71211</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>58717.54218</v>
+        <v>67983.26057000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>182028.67069</v>
+        <v>181997.68124</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>108368.48426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>112080.02026</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>137360.995</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4250.11297</v>
+        <v>4613.16602</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4129.34212</v>
+        <v>3705.48447</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6227.28143</v>
+        <v>4776.95007</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9430.55754</v>
+        <v>8983.87428</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>7712.77205</v>
+        <v>6977.70175</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>9164.53292</v>
+        <v>8763.01022</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>15174.42542</v>
+        <v>14561.4394</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>12353.63718</v>
+        <v>12158.14102</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>12220.62278</v>
+        <v>10903.64207</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>14746.96431</v>
+        <v>14604.68271</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>18056.82235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18021.00149</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>34913.944</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>123292.35325</v>
+        <v>127576.51151</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>125290.64378</v>
+        <v>120876.27393</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>169516.49891</v>
+        <v>176439.05193</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>219066.33512</v>
+        <v>230116.42554</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>257742.5314</v>
+        <v>254609.20921</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>320223.92636</v>
+        <v>348404.60113</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>333172.5822</v>
+        <v>368540.63289</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>411218.9965299999</v>
+        <v>432463.35635</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>497402.40488</v>
+        <v>496618.62975</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>712863.52772</v>
+        <v>784592.77613</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>688693.0158699999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>706698.9579299999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>939084.733</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>75033.94103999999</v>
+        <v>80522.90090000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>85159.49973000001</v>
+        <v>82860.79190000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>105555.15646</v>
+        <v>106104.31357</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>128858.4622</v>
+        <v>125844.2369</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>148505.62023</v>
+        <v>141177.14457</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>200203.31926</v>
+        <v>204211.431</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>191360.14531</v>
+        <v>200438.09575</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>223611.82695</v>
+        <v>231020.9947</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>276113.92726</v>
+        <v>270135.42269</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>354125.2942</v>
+        <v>374842.69236</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>392626.60116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>404140.54175</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>488560.487</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>190.80312</v>
@@ -1592,13 +1578,13 @@
         <v>39.36218</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>180.52065</v>
+        <v>185.00345</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>308.76295</v>
+        <v>308.92388</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>281.27555</v>
+        <v>247.28484</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>295.91548</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>305.36186</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1431.957</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>28415.56979</v>
+        <v>35911.57302</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>30641.41782</v>
+        <v>31601.5851</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>36052.84855</v>
+        <v>37964.85735</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>46243.84183</v>
+        <v>47629.56618</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>56183.30001000001</v>
+        <v>56521.08912</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>69663.67634999999</v>
+        <v>76810.27983</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>64159.8034</v>
+        <v>68445.25298999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>80858.52645</v>
+        <v>89141.50912</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>98889.90505000002</v>
+        <v>111464.54082</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>169289.96469</v>
+        <v>188952.7764</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>183399.5674</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>199724.94578</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>238674.984</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>46427.56813</v>
+        <v>44420.52476</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>54501.30621</v>
+        <v>51242.43109999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>69499.15790999999</v>
+        <v>68136.30622</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>82612.84450000001</v>
+        <v>78212.89485</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>92318.81522</v>
+        <v>84652.55045000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>130500.28073</v>
+        <v>127361.78899</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>127019.82126</v>
+        <v>131807.83931</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>142444.53755</v>
+        <v>141570.5617</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>176942.74666</v>
+        <v>158423.59703</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>184539.41403</v>
+        <v>185594.00048</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>208921.6719</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>204110.23411</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>248453.546</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>48258.41221</v>
+        <v>47053.61061</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>40131.14405</v>
+        <v>38015.48203</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>63961.34245</v>
+        <v>70334.73836</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>90207.87291999998</v>
+        <v>104272.18864</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>109236.91117</v>
+        <v>113432.06464</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>120020.6071</v>
+        <v>144193.17013</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>141812.43689</v>
+        <v>168102.53714</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>187607.16958</v>
+        <v>201442.36165</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>221288.47762</v>
+        <v>226483.20706</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>358738.23352</v>
+        <v>409750.08377</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>296066.41471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>302558.41618</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>450524.246</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>19187.86687</v>
+        <v>20111.35923</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>14652.45939</v>
+        <v>18409.00021</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>18121.75201</v>
+        <v>28117.54568</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>14560.91011</v>
+        <v>14788.00968</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>25944.40391</v>
+        <v>23598.8084</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>25364.15154</v>
+        <v>26037.46444</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>43069.07476</v>
+        <v>49321.29721</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>38321.04137000001</v>
+        <v>44425.05830999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>41651.84303</v>
+        <v>42797.2008</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>180649.61795</v>
+        <v>242852.35899</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>109719.9196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>120997.7744</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>163963.454</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>77.02816</v>
@@ -1781,13 +1792,13 @@
         <v>64.18137</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>357.8732199999999</v>
+        <v>55.25702</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>377.74864</v>
+        <v>75.16116000000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>274.67519</v>
+        <v>192.19041</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>161.43909</v>
@@ -1796,16 +1807,21 @@
         <v>45.86019</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>88.57275999999999</v>
+        <v>57.31099</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>498.26951</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>403.3461</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>80.255</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1832,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>5.5803</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>21.1636</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1949.12748</v>
+        <v>1141.17732</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1106.59313</v>
+        <v>764.34</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1987.97065</v>
+        <v>4381.24789</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1865.83398</v>
+        <v>1767.21241</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2159.11216</v>
+        <v>2061.87785</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2601.51137</v>
+        <v>2458.67993</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3487.12277</v>
+        <v>3428.98912</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2906.11223</v>
+        <v>3306.26744</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4070.11139</v>
+        <v>5905.36888</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>23718.94073</v>
+        <v>26403.92059</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>25178.164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>24552.4368</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>15217.87</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>13.98305</v>
@@ -1895,22 +1921,22 @@
         <v>258.912</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>26.88306</v>
+        <v>26.85491</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>29.2007</v>
+        <v>21.02441</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>14.6224</v>
+        <v>14.61826</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>686.77825</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>14.77577</v>
+        <v>3.61683</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>21.00784</v>
+        <v>31.95462</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>10.47527</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>3448.9346</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>6.101</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>588.02662</v>
+        <v>662.59024</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>482.77259</v>
+        <v>565.6590200000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1061.48881</v>
+        <v>1197.31881</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>540.01724</v>
+        <v>605.01724</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1929.03622</v>
+        <v>384.31912</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1089.52262</v>
+        <v>968.3336599999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>917.5924699999999</v>
+        <v>734.2591399999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>8444.14335</v>
+        <v>5702.509300000001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1195.368</v>
+        <v>1367.58</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>431.61773</v>
+        <v>428.03806</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1031.57167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1563.80936</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1609.533</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>111.50225</v>
+        <v>112.37432</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>36.71882</v>
+        <v>32.51247</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>101.33206</v>
+        <v>95.72542</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>78.44138000000001</v>
+        <v>60.35303</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>78.32545</v>
+        <v>71.12442000000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>147.88552</v>
+        <v>148.6119</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>331.39733</v>
+        <v>264.93422</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>97.15997999999999</v>
+        <v>93.90617</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>912.78126</v>
+        <v>939.8175</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>416.6568600000001</v>
+        <v>414.90678</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>855.32645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>830.5151699999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1234.554</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>11789.56925</v>
+        <v>15258.00485</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>10226.01578</v>
+        <v>14094.37136</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>10165.74891</v>
+        <v>11075.70996</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>8421.225420000001</v>
+        <v>9657.618550000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>15161.56036</v>
+        <v>15009.35358</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>15183.46811</v>
+        <v>17428.22597</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>26473.00055</v>
+        <v>33852.2867</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>18027.4347</v>
+        <v>24514.20166</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>19621.96142</v>
+        <v>20604.38794</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>144643.81627</v>
+        <v>206614.251</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>56197.25468999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>68195.91979</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>112885.34</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>909.41939</v>
@@ -2054,31 +2100,36 @@
         <v>1259.25121</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1650.15668</v>
+        <v>1937.93991</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>2188.566</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2358.93213</v>
+        <v>2487.7267</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2254.65041</v>
+        <v>4804.824320000001</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>2082.70758</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1204.08107</v>
+        <v>541.40556</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>11682.36254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>10805.93378</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>21652.405</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.21186</v>
@@ -2113,182 +2164,207 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3748.99881</v>
+        <v>1936.57004</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2171.56224</v>
+        <v>2323.32053</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3747.91467</v>
+        <v>10310.24669</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2305.07645</v>
+        <v>1347.52096</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4579.13912</v>
+        <v>4057.91209</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3688.40345</v>
+        <v>2682.84413</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8413.286779999999</v>
+        <v>7547.84338</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6389.993930000001</v>
+        <v>5812.96159</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>13603.21506</v>
+        <v>11726.2741</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>10131.62371</v>
+        <v>8378.217189999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>10806.87254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>11175.7152</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>11277.396</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>18801.13287</v>
+        <v>23471.0883</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>11840.49977</v>
+        <v>14455.19478</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>23220.73458</v>
+        <v>26875.86228</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>16301.30973</v>
+        <v>18929.5654</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>39180.40337000001</v>
+        <v>39120.78329</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>25641.77468</v>
+        <v>28442.12849</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>47561.78776000001</v>
+        <v>66960.98161</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>41852.05043</v>
+        <v>48072.5735</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>48104.36835</v>
+        <v>47391.20979000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>218512.04149</v>
+        <v>290357.16552</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>98913.5638</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>105851.22847</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>176963.491</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>215.41468</v>
+        <v>143.01549</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>238.98577</v>
+        <v>218.35972</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>334.27384</v>
+        <v>206.76894</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>221.4117</v>
+        <v>120.0119</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>155.88007</v>
+        <v>34.89591</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>134.17052</v>
+        <v>75.51600999999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>149.1484</v>
+        <v>146.08341</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>901.54803</v>
+        <v>939.9289</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>126.657</v>
+        <v>100.30172</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>480.65567</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>876.73875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>853.79812</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>137.812</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3454.2925</v>
+        <v>3926.99177</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1231.93192</v>
+        <v>1280.39544</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4051.50704</v>
+        <v>4439.95276</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6620.92903</v>
+        <v>8186.719059999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9423.284959999999</v>
+        <v>9970.572259999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3998.20494</v>
+        <v>4576.67952</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>10482.08175</v>
+        <v>12064.78238</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3319.96459</v>
+        <v>3758.21505</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5768.45344</v>
+        <v>5759.61784</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>12069.20749</v>
+        <v>10902.51376</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>11076.36394</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>12622.66394</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>7407.46</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>10.76766</v>
+        <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>2.19507</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>266.5741</v>
+        <v>221.25735</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>171.59347</v>
+        <v>151.0786</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>58.12308</v>
@@ -2297,7 +2373,7 @@
         <v>278.06121</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0.00137</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>356.46714</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>274.54857</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.709</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>11997.54237</v>
+        <v>16339.09726</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>8396.986140000001</v>
+        <v>11047.64458</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>16766.95536</v>
+        <v>20202.55738</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7058.25794</v>
+        <v>8360.117029999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>25933.77436</v>
+        <v>25055.04807</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>17494.67993</v>
+        <v>19489.15254</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>30152.33293</v>
+        <v>47515.24423999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>32206.96839</v>
+        <v>35590.99687</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>33149.33897</v>
+        <v>32909.9402</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>189872.32451</v>
+        <v>264521.76477</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>68726.14201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>73886.62626999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>132889.573</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>746.5237</v>
@@ -2366,34 +2452,39 @@
         <v>1260.2658</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1701.59619</v>
+        <v>2117.74103</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>2154.41879</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>2382.10515</v>
+        <v>2779.66615</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2158.70671</v>
+        <v>4553.56194</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>3612.67094</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>11336.47411</v>
+        <v>9698.85161</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>12215.53758</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>28676.669</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>10.54453</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>3.90346</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>25.83155</v>
+        <v>13.56172</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2425,254 +2516,289 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>88.321</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2376.81509</v>
+        <v>2315.46008</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1267.6919</v>
+        <v>1214.65866</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1185.11891</v>
+        <v>1143.70377</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>848.03961</v>
+        <v>767.6325399999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1794.27432</v>
+        <v>1791.44742</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1793.58706</v>
+        <v>2079.64819</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4075.32272</v>
+        <v>4134.408619999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3264.86134</v>
+        <v>3229.87074</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5090.780860000001</v>
+        <v>4652.21195</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>4753.37971</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5744.232950000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>5998.05399</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>7762.947</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>27789.67328</v>
+        <v>30938.43902</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>19648.83119</v>
+        <v>23329.87926</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>30646.47658</v>
+        <v>31512.13873</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>45938.73805</v>
+        <v>45086.56201</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>46720.56152</v>
+        <v>45137.87899</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>57449.88867</v>
+        <v>60778.62483</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>70379.39568</v>
+        <v>76777.43657999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>93740.56706</v>
+        <v>99722.98814999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>115026.93884</v>
+        <v>117491.28922</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>201476.48131</v>
+        <v>204258.89999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>188283.85656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>188228.70231</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>174265.016</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>25740.66648</v>
+        <v>28818.05806</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>18556.38033</v>
+        <v>22239.61503</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>28929.65153</v>
+        <v>29479.92088</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>43330.08790000001</v>
+        <v>42477.91186</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>43125.82455</v>
+        <v>39299.52462999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>56226.65658</v>
+        <v>59555.39274</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>67777.00734</v>
+        <v>74474.60256</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>90189.51897</v>
+        <v>94671.54355</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>109505.09069</v>
+        <v>112037.058</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>191208.25877</v>
+        <v>197089.17326</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>181055.30747</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>181158.67173</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>163083.413</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2049.0068</v>
+        <v>2120.38096</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1092.45086</v>
+        <v>1090.26423</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1716.82505</v>
+        <v>2032.21785</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>2608.65015</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3594.73697</v>
+        <v>5838.35436</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>1223.23209</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2602.38834</v>
+        <v>2302.834019999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3551.04809</v>
+        <v>5051.4446</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>5521.84815</v>
+        <v>5454.23122</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>10268.22254</v>
+        <v>7169.72673</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>7228.54909</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>7070.03058</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>11181.603</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>20855.47293</v>
+        <v>12755.44252</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>23294.27248</v>
+        <v>18639.4082</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>28215.8833</v>
+        <v>40064.28303</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>42528.73525</v>
+        <v>55044.07091</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>49280.35019</v>
+        <v>52772.21075999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>62293.09529</v>
+        <v>81009.88125000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>66940.32821000001</v>
+        <v>73685.41615999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>90335.59345999999</v>
+        <v>98071.85831</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>99809.01345999999</v>
+        <v>104397.90885</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>119399.32867</v>
+        <v>157986.37725</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>118588.91395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>129476.2598</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>263259.193</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4937.23992</v>
+        <v>3764.73287</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>7153.6079</v>
+        <v>5824.88434</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>8281.20009</v>
+        <v>7848.7517</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>13688.09231</v>
+        <v>12508.63709</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>13277.86026</v>
+        <v>12465.33917</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>19150.21576</v>
+        <v>9867.352290000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>18313.2334</v>
+        <v>18256.201</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>30686.92287</v>
+        <v>22139.22754</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>29088.33163</v>
+        <v>25614.9473</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>21859.20126</v>
+        <v>24626.24759</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>40009.56437000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>41944.45701999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>36895.439</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>52.30729</v>
+        <v>55.36939</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>103.5451</v>
+        <v>104.26107</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>38.16196</v>
+        <v>18.24848</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>5.3247</v>
@@ -2681,337 +2807,380 @@
         <v>98.63488000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>30.89683</v>
+        <v>12.65991</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>839.1365699999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>374.38502</v>
+        <v>180.46045</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>57.40629</v>
+        <v>3.38629</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>11.22062</v>
+        <v>1785.82558</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>363.1237</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>374.798</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>4884.93263</v>
+        <v>3709.36348</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>7050.062800000001</v>
+        <v>5720.623269999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>8243.038130000001</v>
+        <v>7830.50322</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>13682.76761</v>
+        <v>12503.31239</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>13179.22538</v>
+        <v>12366.70429</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>19119.31893</v>
+        <v>9854.69238</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>17474.09683</v>
+        <v>17417.06443</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>30312.53785</v>
+        <v>21958.76709</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>29030.92534</v>
+        <v>25611.56101</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>21847.98064</v>
+        <v>22840.42201</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>39646.44067</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>41581.33332</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>36520.641</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6472.32416</v>
+        <v>5003.00101</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3938.58594</v>
+        <v>3529.66844</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>23021.64143</v>
+        <v>20023.89128</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>8831.675949999999</v>
+        <v>6191.47315</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11813.19986</v>
+        <v>7321.64777</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>31576.51359</v>
+        <v>31740.02834</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>11683.07202</v>
+        <v>10063.381</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>29723.86315</v>
+        <v>33854.66687000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>11190.72452</v>
+        <v>18557.33188</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>28930.67504</v>
+        <v>31467.54525</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>25856.50349</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>24875.61335</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>27025.576</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2782.18329</v>
+        <v>1281.05161</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1215.86255</v>
+        <v>904.63323</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1591.62248</v>
+        <v>1248.90408</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1748.64239</v>
+        <v>1596.21099</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>3041.72597</v>
+        <v>820.8627299999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1314.17413</v>
+        <v>878.81627</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1835.58886</v>
+        <v>1575.21753</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1481.42652</v>
+        <v>1405.26993</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>580.28102</v>
+        <v>283.92725</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>5162.90396</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1156.32238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>936.4489699999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>975.704</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>102.789</v>
+        <v>176.16704</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>437.3425</v>
+        <v>135.9523</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1487.99689</v>
+        <v>1294.74787</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>352.65763</v>
+        <v>308.24224</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>206.9146</v>
+        <v>211.68117</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>447.95772</v>
+        <v>434.01082</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>319.57577</v>
+        <v>298.45682</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>567.5904499999999</v>
+        <v>554.22702</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>705.7830799999999</v>
+        <v>730.34336</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>982.59326</v>
+        <v>979.53205</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>1093.75997</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>1002.658</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3587.35187</v>
+        <v>3545.78236</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2285.38089</v>
+        <v>2489.08291</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>19942.02206</v>
+        <v>17480.23933</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>6730.375930000001</v>
+        <v>4287.01992</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>8564.559290000001</v>
+        <v>6289.10387</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>29814.38174</v>
+        <v>30427.20125</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>9527.90739</v>
+        <v>8189.70665</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>27674.84618</v>
+        <v>31895.16992</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>9904.66042</v>
+        <v>17543.06127</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>22785.17782</v>
+        <v>25325.10924</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>23606.42114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>22845.40441</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>25047.214</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>19320.38869</v>
+        <v>11517.17438</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>26509.29444</v>
+        <v>20934.6241</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>13475.44196</v>
+        <v>27889.14345</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>47385.15161</v>
+        <v>61361.23484999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>50745.01059000001</v>
+        <v>57915.90216</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>49866.79745999999</v>
+        <v>59137.2052</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>73570.48959</v>
+        <v>81878.23616</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>91298.65318000001</v>
+        <v>86356.41898</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>117706.62057</v>
+        <v>111455.52427</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>112327.85489</v>
+        <v>151145.07959</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>132741.97483</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>146545.10347</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>273129.056</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>5060.84433</v>
+        <v>4545.23125</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>5485.28517</v>
+        <v>5220.45594</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7900.90862</v>
+        <v>8358.7552</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>9028.42916</v>
+        <v>11076.65897</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>12497.62802</v>
+        <v>12917.37777</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15169.60151</v>
+        <v>17882.02241</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>13852.71114</v>
+        <v>16382.58401</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>18663.05504</v>
+        <v>20655.77779</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>20763.28135</v>
+        <v>20709.36474</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>27291.71244</v>
+        <v>36053.93665</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>29535.4719</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>37504.26255000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>44918.748</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>14259.54436</v>
+        <v>6971.94313</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>21024.00927</v>
+        <v>15714.16816</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>5574.53334</v>
+        <v>19530.38825</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>38356.72245</v>
+        <v>50284.57588</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>38247.38257</v>
+        <v>44998.52439</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>34697.19595</v>
+        <v>41255.18279</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>59717.77845000001</v>
+        <v>65495.65215000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>72635.59814</v>
+        <v>65700.64118999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>96943.33921999999</v>
+        <v>90746.15953</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>85036.14245</v>
+        <v>115091.14294</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>103206.50293</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>109040.84092</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>228210.308</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>142</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>